--- a/biology/Botanique/Clematis_patens_'Sympatia'/Clematis_patens_'Sympatia'.xlsx
+++ b/biology/Botanique/Clematis_patens_'Sympatia'/Clematis_patens_'Sympatia'.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Clematis_patens_%27Sympatia%27</t>
+          <t>Clematis_patens_'Sympatia'</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La clématite patens 'Sympatia', est un cultivar de clématite obtenue en 1978 par Stefan Franczak en Pologne.
 La clématite 'Sympatia a été commercialisée à partir de 1986.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Clematis_patens_%27Sympatia%27</t>
+          <t>Clematis_patens_'Sympatia'</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,13 +524,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">'Sympatia' est une clématite à fleur violette surmonté d'un bande rosâtre, de grande taille elle possède entre sept et neuf sépales et d'un diamètre d'environ 22 centimètres. La couleur rouge des étamines de cette clématite se mêlent parfaitement avec les sépales elliptiques légèrement ondulé.
 À taille adulte la clématite 'Sympatia' se développent à environ 2m.
 Elle ne possède pas de parfum particulier.
-Feuilles
-Les feuilles de cette clématite sont parfois simple, parfois alternes.
 </t>
         </is>
       </c>
@@ -529,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Clematis_patens_%27Sympatia%27</t>
+          <t>Clematis_patens_'Sympatia'</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,10 +556,21 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Obtention</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Feuilles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les feuilles de cette clématite sont parfois simple, parfois alternes.
+</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -555,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Clematis_patens_%27Sympatia%27</t>
+          <t>Clematis_patens_'Sympatia'</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -570,15 +593,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Distribution</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En France la clématite 'Sympatia' est un cultivar très produit donc facilement distribué par les producteurs dans le monde.
-</t>
-        </is>
-      </c>
+          <t>Obtention</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -586,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Clematis_patens_%27Sympatia%27</t>
+          <t>Clematis_patens_'Sympatia'</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -601,12 +621,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Protection</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">'Sympatia' n'est protégée par aucun organisme.
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France la clématite 'Sympatia' est un cultivar très produit donc facilement distribué par les producteurs dans le monde.
 </t>
         </is>
       </c>
@@ -617,7 +639,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Clematis_patens_%27Sympatia%27</t>
+          <t>Clematis_patens_'Sympatia'</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -632,10 +654,45 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'Sympatia' n'est protégée par aucun organisme.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Clematis_patens_'Sympatia'</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Sympatia%27</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Culture</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">La clématite 'Sympatia' est adaptée à la culture en pleine terre ou en pot.
 Cette clématite du groupe 2 fleurie sur le bois de l'année précédente au printemps puis sur la pousse de l'année à l'automne. Elle résiste à des températures inférieures à 20 °C.
@@ -643,44 +700,13 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Clematis_patens_%27Sympatia%27</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Sympatia%27</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Maladies et ravageurs</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La clématite 'Sympatia' est sensible à l'excès d'eau ce qui pourra provoquer une pourriture du collet de la plante et ainsi la mort de la clématite.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Clematis_patens_%27Sympatia%27</t>
+          <t>Clematis_patens_'Sympatia'</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -695,10 +721,45 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>Maladies et ravageurs</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La clématite 'Sympatia' est sensible à l'excès d'eau ce qui pourra provoquer une pourriture du collet de la plante et ainsi la mort de la clématite.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Clematis_patens_'Sympatia'</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Sympatia%27</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Récompense</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">À ce jour 'Sympatia' n'a reçu aucune récompense.
 </t>
